--- a/用例数据/沪权/分配虚拟股东/测试结果.xlsx
+++ b/用例数据/沪权/分配虚拟股东/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="沪权" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5360" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5360" uniqueCount="392">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1105,6 +1105,99 @@
   </si>
   <si>
     <t>futurepositiondetail2022</t>
+  </si>
+  <si>
+    <t>20230201000000</t>
+  </si>
+  <si>
+    <t>000117212005</t>
+  </si>
+  <si>
+    <t>000117212006</t>
+  </si>
+  <si>
+    <t>20230201153229</t>
+  </si>
+  <si>
+    <t>20230201235959</t>
+  </si>
+  <si>
+    <t>20230201153512</t>
+  </si>
+  <si>
+    <t>20230201160506</t>
+  </si>
+  <si>
+    <t>20230201160532</t>
+  </si>
+  <si>
+    <t>20230201153228</t>
+  </si>
+  <si>
+    <t>20230201153511</t>
+  </si>
+  <si>
+    <t>20230201160505</t>
+  </si>
+  <si>
+    <t>20230201160531</t>
+  </si>
+  <si>
+    <t>30000654</t>
+  </si>
+  <si>
+    <t>20230202110346</t>
+  </si>
+  <si>
+    <t>998549736.120</t>
+  </si>
+  <si>
+    <t>30000655</t>
+  </si>
+  <si>
+    <t>30000662</t>
+  </si>
+  <si>
+    <t>30000663</t>
+  </si>
+  <si>
+    <t>30000664</t>
+  </si>
+  <si>
+    <t>30000665</t>
+  </si>
+  <si>
+    <t>1001516460.000</t>
+  </si>
+  <si>
+    <t>30000666</t>
+  </si>
+  <si>
+    <t>30000667</t>
+  </si>
+  <si>
+    <t>30000668</t>
+  </si>
+  <si>
+    <t>30000669</t>
+  </si>
+  <si>
+    <t>30000674</t>
+  </si>
+  <si>
+    <t>30000675</t>
+  </si>
+  <si>
+    <t>30000676</t>
+  </si>
+  <si>
+    <t>30000677</t>
+  </si>
+  <si>
+    <t>30000678</t>
+  </si>
+  <si>
+    <t>30000679</t>
   </si>
 </sst>
 </file>
@@ -1436,15 +1529,15 @@
       <selection activeCell="A47" sqref="A47:XFD54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -1784,7 +1877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -1939,7 +2032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
@@ -2094,7 +2187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -2249,7 +2342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -2404,7 +2497,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
@@ -2559,7 +2652,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
@@ -2714,7 +2807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
@@ -2869,7 +2962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
@@ -3024,7 +3117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -3179,7 +3272,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>83</v>
       </c>
@@ -3334,7 +3427,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
@@ -3489,7 +3582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -3644,7 +3737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
@@ -3799,7 +3892,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
@@ -3954,7 +4047,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
@@ -4109,18 +4202,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -4437,7 +4530,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -4697,7 +4790,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -4957,7 +5050,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -5217,7 +5310,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -5477,7 +5570,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -5737,7 +5830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
@@ -5997,7 +6090,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
@@ -6257,7 +6350,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -6517,7 +6610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
@@ -6777,7 +6870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -7037,7 +7130,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
@@ -7297,7 +7390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
@@ -7557,7 +7650,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -7817,7 +7910,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>86</v>
       </c>
@@ -8077,7 +8170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -8337,7 +8430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
@@ -8597,14 +8690,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -8777,7 +8870,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -8947,7 +9040,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -9117,7 +9210,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>76</v>
       </c>
@@ -9287,7 +9380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>77</v>
       </c>
@@ -9457,7 +9550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -9627,7 +9720,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>78</v>
       </c>
@@ -9797,7 +9890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>79</v>
       </c>
@@ -9967,14 +10060,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -10093,7 +10186,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -10206,7 +10299,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -10319,7 +10412,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
@@ -10432,7 +10525,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>77</v>
       </c>
@@ -10545,7 +10638,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -10658,7 +10751,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>78</v>
       </c>
@@ -10771,7 +10864,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
@@ -10884,7 +10977,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
@@ -10997,438 +11090,438 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11440,13 +11533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>254</v>
       </c>
@@ -11616,9 +11709,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>91</v>
@@ -11630,10 +11723,10 @@
         <v>222</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>223</v>
@@ -11783,9 +11876,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>91</v>
@@ -11797,10 +11890,10 @@
         <v>222</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>223</v>
@@ -11950,9 +12043,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>91</v>
@@ -11964,10 +12057,10 @@
         <v>222</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>223</v>
@@ -12117,9 +12210,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>91</v>
@@ -12131,10 +12224,10 @@
         <v>222</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>223</v>
@@ -12284,9 +12377,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>91</v>
@@ -12298,10 +12391,10 @@
         <v>222</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>223</v>
@@ -12451,9 +12544,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>91</v>
@@ -12465,10 +12558,10 @@
         <v>222</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>223</v>
@@ -12618,9 +12711,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>91</v>
@@ -12632,10 +12725,10 @@
         <v>222</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>223</v>
@@ -12797,12 +12890,12 @@
   <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>254</v>
       </c>
@@ -12918,15 +13011,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>223</v>
@@ -12944,10 +13037,10 @@
         <v>92</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>73</v>
@@ -12959,7 +13052,7 @@
         <v>350</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>364</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>74</v>
@@ -12971,7 +13064,7 @@
         <v>225</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>99</v>
@@ -12983,7 +13076,7 @@
         <v>248</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>67</v>
@@ -12992,10 +13085,10 @@
         <v>73</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>71</v>
+        <v>366</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>359</v>
@@ -13028,15 +13121,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>223</v>
@@ -13048,16 +13141,16 @@
         <v>91</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>73</v>
@@ -13069,7 +13162,7 @@
         <v>350</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>71</v>
+        <v>367</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>74</v>
@@ -13081,7 +13174,7 @@
         <v>225</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>99</v>
@@ -13093,7 +13186,7 @@
         <v>248</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>67</v>
@@ -13102,10 +13195,10 @@
         <v>73</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>71</v>
+        <v>368</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>359</v>
@@ -13138,15 +13231,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>223</v>
@@ -13179,7 +13272,7 @@
         <v>350</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>74</v>
@@ -13203,7 +13296,7 @@
         <v>248</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>67</v>
@@ -13212,7 +13305,7 @@
         <v>73</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>138</v>
+        <v>370</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>141</v>
@@ -13248,15 +13341,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>223</v>
@@ -13274,10 +13367,10 @@
         <v>92</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>73</v>
@@ -13289,7 +13382,7 @@
         <v>350</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>89</v>
+        <v>371</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>74</v>
@@ -13301,7 +13394,7 @@
         <v>225</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>99</v>
@@ -13313,7 +13406,7 @@
         <v>248</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>67</v>
@@ -13322,10 +13415,10 @@
         <v>73</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>128</v>
+        <v>372</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>359</v>
@@ -13358,15 +13451,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>223</v>
@@ -13378,16 +13471,16 @@
         <v>91</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>73</v>
@@ -13399,7 +13492,7 @@
         <v>350</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>89</v>
+        <v>364</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>74</v>
@@ -13411,7 +13504,7 @@
         <v>225</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>99</v>
@@ -13423,7 +13516,7 @@
         <v>248</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>67</v>
@@ -13432,10 +13525,10 @@
         <v>73</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>128</v>
+        <v>366</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>359</v>
@@ -13468,15 +13561,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>223</v>
@@ -13488,16 +13581,16 @@
         <v>91</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>73</v>
@@ -13509,7 +13602,7 @@
         <v>350</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>123</v>
+        <v>367</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>74</v>
@@ -13521,7 +13614,7 @@
         <v>225</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>99</v>
@@ -13533,7 +13626,7 @@
         <v>248</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>67</v>
@@ -13542,10 +13635,10 @@
         <v>73</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>114</v>
+        <v>368</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>359</v>
@@ -13578,15 +13671,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>223</v>
@@ -13604,10 +13697,10 @@
         <v>92</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>73</v>
@@ -13619,7 +13712,7 @@
         <v>350</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>74</v>
@@ -13631,7 +13724,7 @@
         <v>225</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>99</v>
@@ -13643,7 +13736,7 @@
         <v>248</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>67</v>
@@ -13652,10 +13745,10 @@
         <v>73</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>114</v>
+        <v>361</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>359</v>
@@ -13688,15 +13781,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>361</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>223</v>
@@ -13708,16 +13801,16 @@
         <v>91</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>73</v>
@@ -13729,7 +13822,7 @@
         <v>350</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>74</v>
@@ -13741,7 +13834,7 @@
         <v>225</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>99</v>
@@ -13753,7 +13846,7 @@
         <v>248</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>67</v>
@@ -13762,10 +13855,10 @@
         <v>73</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>146</v>
+        <v>361</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>359</v>
@@ -13808,13 +13901,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -14125,9 +14218,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>331</v>
@@ -14136,22 +14229,22 @@
         <v>223</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>319</v>
@@ -14160,13 +14253,13 @@
         <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>92</v>
@@ -14175,10 +14268,10 @@
         <v>224</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>99</v>
@@ -14193,7 +14286,7 @@
         <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>73</v>
@@ -14205,13 +14298,13 @@
         <v>98</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>89</v>
+        <v>361</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>67</v>
@@ -14379,9 +14472,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>331</v>
@@ -14390,22 +14483,22 @@
         <v>223</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>319</v>
@@ -14414,13 +14507,13 @@
         <v>91</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>92</v>
@@ -14429,10 +14522,10 @@
         <v>224</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>99</v>
@@ -14447,7 +14540,7 @@
         <v>70</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>73</v>
@@ -14459,13 +14552,13 @@
         <v>98</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>89</v>
+        <v>361</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>67</v>
@@ -14633,9 +14726,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>331</v>
@@ -14644,22 +14737,22 @@
         <v>223</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>319</v>
@@ -14668,13 +14761,13 @@
         <v>91</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>92</v>
@@ -14701,7 +14794,7 @@
         <v>70</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>73</v>
@@ -14713,13 +14806,13 @@
         <v>98</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>133</v>
+        <v>369</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>67</v>
@@ -14887,9 +14980,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>331</v>
@@ -14898,19 +14991,19 @@
         <v>223</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>326</v>
@@ -14922,7 +15015,7 @@
         <v>91</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>326</v>
@@ -14937,10 +15030,10 @@
         <v>224</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>99</v>
@@ -14955,7 +15048,7 @@
         <v>70</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>73</v>
@@ -14967,13 +15060,13 @@
         <v>98</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>67</v>
@@ -15141,9 +15234,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>331</v>
@@ -15152,19 +15245,19 @@
         <v>223</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>326</v>
@@ -15176,7 +15269,7 @@
         <v>91</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>326</v>
@@ -15191,10 +15284,10 @@
         <v>224</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>99</v>
@@ -15209,7 +15302,7 @@
         <v>70</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>73</v>
@@ -15221,13 +15314,13 @@
         <v>98</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>67</v>
@@ -15395,9 +15488,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>331</v>
@@ -15406,22 +15499,22 @@
         <v>223</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>319</v>
@@ -15430,13 +15523,13 @@
         <v>91</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>92</v>
@@ -15463,7 +15556,7 @@
         <v>70</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>73</v>
@@ -15475,13 +15568,13 @@
         <v>98</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="AD7" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>67</v>
@@ -15649,9 +15742,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>331</v>
@@ -15660,22 +15753,22 @@
         <v>223</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>319</v>
@@ -15684,13 +15777,13 @@
         <v>91</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>92</v>
@@ -15699,10 +15792,10 @@
         <v>224</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>99</v>
@@ -15717,7 +15810,7 @@
         <v>70</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>73</v>
@@ -15729,13 +15822,13 @@
         <v>98</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>71</v>
+        <v>367</v>
       </c>
       <c r="AD8" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>67</v>
@@ -15903,9 +15996,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>331</v>
@@ -15914,22 +16007,22 @@
         <v>223</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>319</v>
@@ -15938,13 +16031,13 @@
         <v>91</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>92</v>
@@ -15953,10 +16046,10 @@
         <v>224</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>99</v>
@@ -15971,7 +16064,7 @@
         <v>70</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>73</v>
@@ -15983,13 +16076,13 @@
         <v>98</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>71</v>
+        <v>367</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>67</v>
@@ -16157,9 +16250,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>349</v>
@@ -16168,22 +16261,22 @@
         <v>223</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>319</v>
@@ -16192,13 +16285,13 @@
         <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>92</v>
@@ -16207,10 +16300,10 @@
         <v>224</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>99</v>
@@ -16225,7 +16318,7 @@
         <v>70</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>73</v>
@@ -16237,13 +16330,13 @@
         <v>98</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>128</v>
+        <v>361</v>
       </c>
       <c r="AD10" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>67</v>
@@ -16306,10 +16399,10 @@
         <v>333</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>89</v>
+        <v>361</v>
       </c>
       <c r="BD10" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="BE10" s="1" t="s">
         <v>69</v>
@@ -16411,9 +16504,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>349</v>
@@ -16422,22 +16515,22 @@
         <v>223</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>319</v>
@@ -16446,13 +16539,13 @@
         <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>92</v>
@@ -16461,10 +16554,10 @@
         <v>224</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>99</v>
@@ -16479,7 +16572,7 @@
         <v>70</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>73</v>
@@ -16491,13 +16584,13 @@
         <v>98</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>128</v>
+        <v>361</v>
       </c>
       <c r="AD11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>67</v>
@@ -16560,10 +16653,10 @@
         <v>333</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>89</v>
+        <v>361</v>
       </c>
       <c r="BD11" s="1" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="BE11" s="1" t="s">
         <v>69</v>
@@ -16665,9 +16758,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>349</v>
@@ -16676,22 +16769,22 @@
         <v>223</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>319</v>
@@ -16700,13 +16793,13 @@
         <v>91</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>92</v>
@@ -16733,7 +16826,7 @@
         <v>70</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>73</v>
@@ -16745,13 +16838,13 @@
         <v>98</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>67</v>
@@ -16814,10 +16907,10 @@
         <v>333</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>133</v>
+        <v>369</v>
       </c>
       <c r="BD12" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="BE12" s="1" t="s">
         <v>69</v>
@@ -16919,9 +17012,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>349</v>
@@ -16930,19 +17023,19 @@
         <v>223</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>326</v>
@@ -16954,7 +17047,7 @@
         <v>91</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>326</v>
@@ -16969,10 +17062,10 @@
         <v>224</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>99</v>
@@ -16987,7 +17080,7 @@
         <v>70</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>73</v>
@@ -16999,13 +17092,13 @@
         <v>98</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>67</v>
@@ -17068,10 +17161,10 @@
         <v>333</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="BE13" s="1" t="s">
         <v>69</v>
@@ -17173,9 +17266,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>349</v>
@@ -17184,19 +17277,19 @@
         <v>223</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>326</v>
@@ -17208,7 +17301,7 @@
         <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>115</v>
+        <v>362</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>326</v>
@@ -17223,10 +17316,10 @@
         <v>224</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>99</v>
@@ -17241,7 +17334,7 @@
         <v>70</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>73</v>
@@ -17253,13 +17346,13 @@
         <v>98</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>67</v>
@@ -17322,10 +17415,10 @@
         <v>333</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="BE14" s="1" t="s">
         <v>69</v>
@@ -17427,9 +17520,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>349</v>
@@ -17438,22 +17531,22 @@
         <v>223</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>319</v>
@@ -17462,13 +17555,13 @@
         <v>91</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>92</v>
@@ -17495,7 +17588,7 @@
         <v>70</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>73</v>
@@ -17507,13 +17600,13 @@
         <v>98</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="AD15" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>67</v>
@@ -17576,10 +17669,10 @@
         <v>333</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="BD15" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="BE15" s="1" t="s">
         <v>69</v>
@@ -17681,9 +17774,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>349</v>
@@ -17692,22 +17785,22 @@
         <v>223</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>319</v>
@@ -17716,13 +17809,13 @@
         <v>91</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>92</v>
@@ -17731,10 +17824,10 @@
         <v>224</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>99</v>
@@ -17749,7 +17842,7 @@
         <v>70</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>73</v>
@@ -17761,13 +17854,13 @@
         <v>98</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>71</v>
+        <v>368</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>67</v>
@@ -17830,10 +17923,10 @@
         <v>333</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>71</v>
+        <v>367</v>
       </c>
       <c r="BD16" s="1" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="BE16" s="1" t="s">
         <v>69</v>
@@ -17935,9 +18028,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>349</v>
@@ -17946,22 +18039,22 @@
         <v>223</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>319</v>
@@ -17970,13 +18063,13 @@
         <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>92</v>
@@ -17985,10 +18078,10 @@
         <v>224</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>99</v>
@@ -18003,7 +18096,7 @@
         <v>70</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>73</v>
@@ -18015,13 +18108,13 @@
         <v>98</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>71</v>
+        <v>368</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>67</v>
@@ -18084,10 +18177,10 @@
         <v>333</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>71</v>
+        <v>367</v>
       </c>
       <c r="BD17" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="BE17" s="1" t="s">
         <v>69</v>
